--- a/Availability/september_NHW.xlsx
+++ b/Availability/september_NHW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\MITRE\RA_Duty_Scheduler\Availability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\MITRE WFD 2020\RA_Duty_Scheduler\Availability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9157962-C5C7-4599-8CFA-DA0582C9DDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED4DA71-7560-4F70-8BFC-3FC46B2D628D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5472" yWindow="390" windowWidth="17568" windowHeight="9498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -20,48 +20,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Timestamp</t>
   </si>
   <si>
-    <t xml:space="preserve">What dates are NOT IDEAL (i.e. you have club meetings, organizational obligations, ect.) </t>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>alexandriarush9@vt.edu</t>
   </si>
   <si>
     <t>Alexandria</t>
   </si>
   <si>
-    <t>9/4/2021, 9/5/2021, 9/6/2021</t>
+    <t>1/14/2022, 1/15/2022, 1/16/2022</t>
+  </si>
+  <si>
+    <t>haileyt@vt.edu</t>
   </si>
   <si>
     <t>Hailey</t>
   </si>
   <si>
-    <t>9/18/2021, 9/19/2021, 9/20/2021, 9/21/2021, 9/22/2021</t>
+    <t>1/14/2022, 1/15/2022, 1/16/2022, 1/18/2022, 1/19/2022, 1/22/2022</t>
+  </si>
+  <si>
+    <t>morisu23@vt.edu</t>
+  </si>
+  <si>
+    <t>Morisu</t>
+  </si>
+  <si>
+    <t>1/21/2022, 1/22/2022, 1/23/2022, 1/24/2022, 1/25/2022</t>
+  </si>
+  <si>
+    <t>megpritch@vt.edu</t>
   </si>
   <si>
     <t>Megan</t>
   </si>
   <si>
-    <t>9/3/2021, 9/4/2021, 9/5/2021, 9/6/2021</t>
-  </si>
-  <si>
-    <t>Morisu</t>
-  </si>
-  <si>
-    <t>9/25/2021, 9/26/2021, 9/27/2021</t>
-  </si>
-  <si>
-    <t>9/21/2021, 9/22/2021</t>
+    <t>1/14/2022, 1/15/2022, 1/16/2022, 1/17/2022</t>
   </si>
   <si>
     <t>David</t>
   </si>
   <si>
-    <t>9/3/2021, 9/10/2021, 9/17/2021, 9/24/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmanuel </t>
+    <t>Emmanuel</t>
   </si>
   <si>
     <t>First Name</t>
@@ -77,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -87,12 +93,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,9 +120,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,7 +343,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -358,69 +356,75 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>44426.516156608792</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>44535.644539965273</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>44431.526388009261</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
-        <v>13</v>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>44428.391091793979</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>44535.647381319446</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>44428.44547737269</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>44537.670207754629</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>44430.869805706017</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>44536.979912511575</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -432,7 +436,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
-    <sortCondition ref="B1:B7"/>
+    <sortCondition ref="C2:C7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Availability/september_NHW.xlsx
+++ b/Availability/september_NHW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\MITRE WFD 2020\RA_Duty_Scheduler\Availability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\github\Duty-Scheduler\Availability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED4DA71-7560-4F70-8BFC-3FC46B2D628D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42414D4C-E306-457C-9749-D74BC99DB4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>Alexandria</t>
   </si>
   <si>
-    <t>1/14/2022, 1/15/2022, 1/16/2022</t>
-  </si>
-  <si>
     <t>haileyt@vt.edu</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>Days</t>
+  </si>
+  <si>
+    <t>1/15/2022, 1/16/2022</t>
   </si>
 </sst>
 </file>
@@ -339,11 +339,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -359,10 +359,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -376,20 +376,20 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -397,13 +397,13 @@
         <v>44535.647381319446</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -411,13 +411,13 @@
         <v>44537.670207754629</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -425,14 +425,23 @@
         <v>44536.979912511575</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
